--- a/users.xlsx
+++ b/users.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1471,28 +1471,666 @@
           <t>عبدالمنعم محمد عبدالمنعم حماد</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>01002688475</t>
-        </is>
+      <c r="C36" t="n">
+        <v>1002688475</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>30608141802936</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>01002688475</t>
-        </is>
+      <c r="E36" t="n">
+        <v>30608141802936</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1002688475</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>45743.19087733719</v>
+        <v>45743.19087733796</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>عبدالمنعم محمد عبدالمنعم حماد</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1002688475</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>30608141802936</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1002688475</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>45744.09903212963</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>عبدالمنعم محمد عبدالمنعم حماد</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1002688475</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>30608141802936</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1002688475</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>45744.10370420139</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>عبدالمنعم محمد عبدالمنعم حماد</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1002688475</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>30608141802936</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1002688475</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>45744.1038267824</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Dragon2395</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>عبدالمنعم محمد عبدالمنعم حماد</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1002688475</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>30608141802936</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1002688475</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>45744.10384783565</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>45744.10447850695</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Dragon2395</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>عبدالمنعم محمد عبدالمنعم حماد</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1002688475</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>30608141802936</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1002688475</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>45744.10573609954</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Dragon2395</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>عبدالمنعم محمد عبدالمنعم حماد</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1002688475</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>30608141802936</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1002688475</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>45744.1236253125</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>45744.14285006945</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>45744.14901010416</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>45744.15071756944</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>45744.15203373843</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>45744.15274981481</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>45744.15566112268</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>45744.15643597223</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>45744.15845520834</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Dragon2395</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>عبدالمنعم محمد عبدالمنعم حماد</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1002688475</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>30608141802936</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1002688475</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>45744.17005643518</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>45744.18402613426</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>45744.19238541667</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>45744.19377091435</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>45744.1949784375</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>45744.19650851852</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>01007497192</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>30611291701934</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>01007497192</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>45744.19950111623</v>
       </c>
     </row>
   </sheetData>

--- a/users.xlsx
+++ b/users.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2109,28 +2109,405 @@
           <t>أدهم عمرو محمد العكل</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>45744.19950111111</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>45745.65249965278</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>45745.65523849537</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>45745.65781824074</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>45745.65989438658</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>45745.66316398148</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>45745.66585842593</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>45745.66996649306</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>45745.67310991898</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>45745.67402579861</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>45745.67759034722</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>45745.68067784722</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>30611291701934</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1007497192</v>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>45745.68254084491</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>B33NX</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>أدهم عمرو محمد العكل</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
         <is>
           <t>01007497192</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>المستوى الأول (برنامج الذكاء الاصطناعي)</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
         <is>
           <t>30611291701934</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>01007497192</t>
         </is>
       </c>
-      <c r="G58" s="2" t="n">
-        <v>45744.19950111623</v>
+      <c r="G71" s="2" t="n">
+        <v>45745.68513091379</v>
       </c>
     </row>
   </sheetData>
